--- a/01_data/신원몰/품번참조/남성세트상세이미지 포함/세트_4/20201211남성세트기술서.xlsx
+++ b/01_data/신원몰/품번참조/남성세트상세이미지 포함/세트_4/20201211남성세트기술서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.0.89\본사\3.신원\※황혜진 폴더\황혜진_작업\20201211\세트_4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00_work\00_git\ImageMaking\01_data\신원몰\품번참조\남성세트상세이미지 포함\세트_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89DF3B0-1983-494B-821C-86CA07B44FC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39DFD5B-CD63-4B92-80EA-88843AF5E0D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32250" yWindow="1125" windowWidth="21210" windowHeight="13485" xr2:uid="{D75BAB3C-1847-4277-98CA-9DFE2C7759FC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D75BAB3C-1847-4277-98CA-9DFE2C7759FC}"/>
   </bookViews>
   <sheets>
     <sheet name="세트" sheetId="1" r:id="rId1"/>
@@ -45,10 +45,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>컬러명 ( 한글/영문 )</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>시즌</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -162,6 +158,10 @@
   </si>
   <si>
     <t>분류코드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬러명 ( 한글/영문 )</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -727,31 +727,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C86044B-787B-40E7-8C28-E4A1A8A6D072}">
   <dimension ref="B1:N5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="14" style="15" customWidth="1"/>
-    <col min="2" max="2" width="28.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.19921875" style="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5" style="17" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="17" customWidth="1"/>
-    <col min="5" max="5" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.69921875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="9.19921875" style="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38" style="17" customWidth="1"/>
-    <col min="7" max="7" width="16.125" style="19" customWidth="1"/>
+    <col min="7" max="7" width="16.09765625" style="19" customWidth="1"/>
     <col min="8" max="8" width="22" style="19" customWidth="1"/>
-    <col min="9" max="9" width="17.125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="17.09765625" style="20" customWidth="1"/>
     <col min="10" max="10" width="23" style="19" customWidth="1"/>
-    <col min="11" max="11" width="28.625" style="21" customWidth="1"/>
+    <col min="11" max="11" width="28.59765625" style="21" customWidth="1"/>
     <col min="12" max="12" width="43.5" style="19" customWidth="1"/>
     <col min="13" max="13" width="9" style="22" customWidth="1"/>
     <col min="14" max="14" width="14" style="19" customWidth="1"/>
     <col min="15" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" s="8" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" s="8" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -759,7 +759,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -768,192 +768,192 @@
         <v>3</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="5" t="s">
+    </row>
+    <row r="2" spans="2:14" ht="119.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="2:14" ht="119.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>13</v>
       </c>
       <c r="E2" s="12">
         <v>738000</v>
       </c>
       <c r="F2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>22</v>
-      </c>
       <c r="K2" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="11" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="3" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" ht="99.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="12">
         <v>548000</v>
       </c>
       <c r="F3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>28</v>
-      </c>
       <c r="H3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="J3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="K3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="L3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="M3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="N3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="11" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="4" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" ht="99.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="12">
         <v>548000</v>
       </c>
       <c r="F4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>30</v>
-      </c>
       <c r="H4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="K4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="L4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="M4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="N4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="11" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="5" spans="2:14" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" ht="99.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>17</v>
-      </c>
       <c r="D5" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="12">
         <v>738000</v>
       </c>
       <c r="F5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>32</v>
-      </c>
       <c r="H5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="J5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="K5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="L5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="M5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="N5" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
